--- a/proy_formativo/documentacion/1er_Trim/Recursos y presupuesto/Presupuesto.xlsx
+++ b/proy_formativo/documentacion/1er_Trim/Recursos y presupuesto/Presupuesto.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\SENA\Proyecto Sena\Sistema de Información JNC\proy_formativo\documentacion\1er_Trim\Recursos y presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115EF7EA-5896-4649-B5DF-8942054E6264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402DB423-A345-4898-B04B-AD06DA302389}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{077409D7-A14B-452D-B324-28A742B64611}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{077409D7-A14B-452D-B324-28A742B64611}"/>
   </bookViews>
   <sheets>
-    <sheet name="Recurso hardware y software" sheetId="1" r:id="rId1"/>
-    <sheet name="Recursos humanos" sheetId="2" r:id="rId2"/>
+    <sheet name="Presupuesto" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,40 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>Recurso</t>
-  </si>
-  <si>
-    <t>Costo x recurso</t>
-  </si>
-  <si>
-    <t>MY-SQL Ultimate</t>
-  </si>
-  <si>
-    <t>Paquete de office </t>
-  </si>
-  <si>
-    <t>Total, de recursos técnicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo mensual </t>
-  </si>
-  <si>
-    <t>Total a sumar</t>
-  </si>
-  <si>
-    <t>Computador Intel Core i3</t>
-  </si>
-  <si>
-    <t>Conexión a internet (6MB)</t>
-  </si>
-  <si>
-    <t>Valor dominio</t>
-  </si>
-  <si>
-    <t>Lenguaje de Programación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Concepto</t>
   </si>
@@ -76,15 +42,9 @@
     <t>Unidad</t>
   </si>
   <si>
-    <t>Precio (S/.)</t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Total (S/.)</t>
-  </si>
-  <si>
     <t>Subtotal:                                                                                                                                                $ 2.130.000</t>
   </si>
   <si>
@@ -152,24 +112,22 @@
   </si>
   <si>
     <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Precio (COP)</t>
+  </si>
+  <si>
+    <t>Total (COP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,60 +441,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -548,107 +524,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,137 +894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B2A60E-D21B-433A-B51D-F56C220E8475}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1400000</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <f>SUM(B2:C2)</f>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="7">
-        <f>SUM(B3:C3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="7">
-        <f>SUM(B4:C4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="7">
-        <v>60000</v>
-      </c>
-      <c r="D5" s="7">
-        <f>SUM(B5:C5)</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>270000</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7">
-        <f>SUM(B6:C6)</f>
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9">
-        <v>35000</v>
-      </c>
-      <c r="D7" s="7">
-        <f>SUM(B7:C7)</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8">
-        <f>SUM(D2:D7)</f>
-        <v>1765000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:C8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409B088D-FA6A-4C4C-A9DD-E6B324C06AB0}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:P26"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,584 +909,608 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="42"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="11" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="38">
+      <c r="D3" s="9">
         <v>1600000</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="38">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="9">
         <v>3</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="22">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="10">
         <f>D3*I3</f>
         <v>4800000</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
+      <c r="A4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="46"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32">
+      <c r="A6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17">
         <f>M3</f>
         <v>4800000</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="53">
+      <c r="B9" s="24"/>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12">
         <v>70000</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12">
         <v>1</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="38">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="9">
         <f>D9*I9</f>
         <v>70000</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="54">
+      <c r="A10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14">
         <v>180000</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="53">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="12">
         <v>3</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="38">
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="9">
         <f t="shared" ref="M10" si="0">D10*I10</f>
         <v>540000</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
         <f>SUM(M9,M10)</f>
         <v>610000</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
+      <c r="A13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="53">
+      <c r="A14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12">
         <v>1400000</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
         <v>3</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="38">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="9">
         <f>D14*I14</f>
         <v>4200000</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53">
+      <c r="A15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12">
         <v>14000</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
         <v>1</v>
       </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="38">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="9">
         <f t="shared" ref="M15" si="1">D15*I15</f>
         <v>14000</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4">
         <f>SUM(M14,M15)</f>
         <v>4214000</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="30"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="21"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
+      <c r="A18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="53">
+      <c r="A19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12">
         <v>65000</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
         <v>3</v>
       </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="38">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="9">
         <f>D19*I19</f>
         <v>195000</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53">
+      <c r="A20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12">
         <v>180000</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
         <v>3</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="38">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="9">
         <f t="shared" ref="M20:M22" si="2">D20*I20</f>
         <v>540000</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53">
+      <c r="A21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12">
         <v>0</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12">
         <v>0</v>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="38">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53">
+      <c r="A22" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12">
         <v>0</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
         <v>0</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="38">
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
         <f>SUM(M19,M20,M21,M22)</f>
         <v>735000</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:P23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:P26"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:H5"/>
+    <mergeCell ref="I3:L5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="C16:P16"/>
@@ -1695,46 +1524,22 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:P23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:P26"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:H5"/>
-    <mergeCell ref="I3:L5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M3:P5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>